--- a/biology/Biologie cellulaire et moléculaire/SREBP2/SREBP2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SREBP2/SREBP2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SREBP2 (« sterol regulatory element-binding protein-2 ») est une protéine régulatrice du métabolisme du cholestérol. Son gène est le SREBF2 situé sur le chromosome 22 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie de la famille des SREBPs dont deux membres ont été identifiés, le SREBP1 et le SERBP2.
-Il stimule en même temps l'expression du gène du récepteur du LDL-cholestérol et celui du PCSK9. Il est lui-même stimulé par la baisse de la concentration intracellulaire de cholestérol[5].
-Il active l'inflammasome par l'intermédiaire du NLRP3 dans les cellules de l'endothelium vasculaire[6] et pourrait, par ce biais, participer à la genèse de l'athérome[7]. Une autre voie pourrait être par l'intermédiaire du microARN 92a qui est activée par le SREBP2, en cas de stress oxydatif[8].
+Il stimule en même temps l'expression du gène du récepteur du LDL-cholestérol et celui du PCSK9. Il est lui-même stimulé par la baisse de la concentration intracellulaire de cholestérol.
+Il active l'inflammasome par l'intermédiaire du NLRP3 dans les cellules de l'endothelium vasculaire et pourrait, par ce biais, participer à la genèse de l'athérome. Une autre voie pourrait être par l'intermédiaire du microARN 92a qui est activée par le SREBP2, en cas de stress oxydatif.
 </t>
         </is>
       </c>
